--- a/kcda_by_podes/indexing_data.xlsx
+++ b/kcda_by_podes/indexing_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Python\pythondump\kcda_by_podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E94673-4284-4DA0-A891-722AFE3C4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09312B-AD09-4521-A8C5-4FB7ED8779A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,18 +434,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -462,8 +456,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,43 +754,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -834,7 +828,7 @@
       <c r="K2" s="1">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>3000</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -875,7 +869,7 @@
       <c r="K3" s="1">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>3000</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -916,7 +910,7 @@
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>3000</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -957,7 +951,7 @@
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>3000</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -998,7 +992,7 @@
       <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>3000</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1039,7 +1033,7 @@
       <c r="K7" s="1">
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>3000</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1080,10 +1074,10 @@
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8">
-        <v>3000</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1121,7 +1115,7 @@
       <c r="K9" s="1">
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>2017</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1162,7 +1156,7 @@
       <c r="K10" s="1">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>3000</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -1203,7 +1197,7 @@
       <c r="K11" s="1">
         <v>6</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>3000</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1244,7 +1238,7 @@
       <c r="K12" s="1">
         <v>6</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>3000</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -1285,7 +1279,7 @@
       <c r="K13" s="1">
         <v>6</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>3000</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -1293,40 +1287,40 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>7</v>
       </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
         <v>3000</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -1367,7 +1361,7 @@
       <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>3000</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -1375,40 +1369,40 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>10</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
         <v>3000</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -1416,40 +1410,40 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
         <v>4</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>1000</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>4</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>3000</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -1457,40 +1451,40 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
         <v>3000</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -1498,40 +1492,40 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>9</v>
       </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
         <v>3000</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -1539,40 +1533,40 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>11</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>3000</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -1580,40 +1574,40 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
         <v>1000</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>6</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>3000</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -1621,40 +1615,40 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
         <v>1000</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>11</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>3000</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -1662,40 +1656,40 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
         <v>1000</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>11</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>3000</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -1703,81 +1697,81 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <v>1000</v>
       </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>3000</v>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1000</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <v>12</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>3000</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -1818,7 +1812,7 @@
       <c r="K26" s="1">
         <v>3</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>3000</v>
       </c>
       <c r="M26" s="2" t="s">
@@ -1859,7 +1853,7 @@
       <c r="K27" s="1">
         <v>3</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>3000</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -1900,7 +1894,7 @@
       <c r="K28" s="1">
         <v>3</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>3000</v>
       </c>
       <c r="M28" s="2" t="s">
@@ -1941,7 +1935,7 @@
       <c r="K29" s="1">
         <v>3</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>3000</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -1982,7 +1976,7 @@
       <c r="K30" s="1">
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>3000</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -2023,7 +2017,7 @@
       <c r="K31" s="1">
         <v>3</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>3000</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -2064,7 +2058,7 @@
       <c r="K32" s="1">
         <v>3</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>3000</v>
       </c>
       <c r="M32" s="2" t="s">
@@ -2072,40 +2066,40 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
         <v>1000</v>
       </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
         <v>3000</v>
       </c>
       <c r="M33" s="2" t="s">
@@ -2113,40 +2107,40 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
         <v>1000</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>4</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <v>1000</v>
       </c>
       <c r="M34" s="2" t="s">
@@ -2154,40 +2148,40 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
         <v>1000</v>
       </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
+      <c r="K35" s="1">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1">
         <v>1000</v>
       </c>
       <c r="M35" s="2" t="s">
@@ -2195,40 +2189,40 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
         <v>1000</v>
       </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
         <v>3000</v>
       </c>
       <c r="M36" s="2" t="s">
@@ -2236,40 +2230,40 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
         <v>1000</v>
       </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
         <v>1000</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -2277,40 +2271,40 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
         <v>1000</v>
       </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
+      <c r="K38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1">
         <v>3000</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -2318,40 +2312,40 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
         <v>1000</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>4</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="1">
         <v>3000</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -2359,40 +2353,40 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
+      <c r="E40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
         <v>1000</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>6</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="1">
         <v>3000</v>
       </c>
       <c r="M40" s="2" t="s">
